--- a/src/test/resources/testdata/excels/LoginCredentials.xlsx
+++ b/src/test/resources/testdata/excels/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14385" windowHeight="6540"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="19965" windowHeight="6540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,9 +399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
